--- a/westeros_tutorial/input/Set_Commodity.xlsx
+++ b/westeros_tutorial/input/Set_Commodity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/MESSAGE-China/projects/westeros/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/message_westeros/westeros_tutorial/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B23D4F-C58B-E64F-9F9B-90CFD1FD07BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23701D-C7BA-EF40-80D6-CC03723C4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>light</t>
+  </si>
+  <si>
+    <t>coal</t>
   </si>
 </sst>
 </file>
@@ -103,8 +106,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C16FDE2C-AA8F-CE48-94C8-275133BA1520}" name="id"/>
     <tableColumn id="2" xr3:uid="{B5AE6C10-33A8-9640-921B-4CBFAAFE0F62}" name="name"/>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1826FC5-ED33-DA4B-8A36-FF13F1B89160}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="273" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,6 +443,14 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/westeros_tutorial/input/Set_Commodity.xlsx
+++ b/westeros_tutorial/input/Set_Commodity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/message_westeros/westeros_tutorial/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA23701D-C7BA-EF40-80D6-CC03723C4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9CA5F3-A456-3846-8B84-4AFCD43E50E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{6A43CB06-E55E-0F45-9223-72CF49A70756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>coal</t>
+  </si>
+  <si>
+    <t>wind_onshore</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
 </sst>
 </file>
@@ -106,8 +112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{617AEAA8-A9B4-3744-8506-96ABF0AC211F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C16FDE2C-AA8F-CE48-94C8-275133BA1520}" name="id"/>
     <tableColumn id="2" xr3:uid="{B5AE6C10-33A8-9640-921B-4CBFAAFE0F62}" name="name"/>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1826FC5-ED33-DA4B-8A36-FF13F1B89160}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="273" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,6 +459,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
